--- a/Ferramenta de Simulação de Fundos Imobiliários.xlsx
+++ b/Ferramenta de Simulação de Fundos Imobiliários.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/C86B02343C584E40/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="8_{391453EE-92AA-440D-AA0F-ADDF6B6BF660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D70B5D91-DED9-4632-B37E-7184F7E00AAF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617F5944-9DB1-4CDB-BF15-D7B1B73D727B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{65976C1F-B8C6-4EB9-9C73-3728E219A18B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="480" xr2:uid="{65976C1F-B8C6-4EB9-9C73-3728E219A18B}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulações" sheetId="1" r:id="rId1"/>
@@ -214,133 +214,13 @@
     <t xml:space="preserve">Valor do Dividendo </t>
   </si>
   <si>
-    <t>HGLG11</t>
+    <t>JSRE11</t>
   </si>
   <si>
     <t>Dividend Yield</t>
   </si>
   <si>
     <t>Crie Seu Próprio Cenário</t>
-  </si>
-  <si>
-    <t>BTHF11</t>
-  </si>
-  <si>
-    <t>Dividendo</t>
-  </si>
-  <si>
-    <t>Total do Valor Investido</t>
-  </si>
-  <si>
-    <t>Total dos Dividendos</t>
-  </si>
-  <si>
-    <t>Crie seu Portfólio de Investimentos</t>
-  </si>
-  <si>
-    <t>Valor do Dividendo</t>
-  </si>
-  <si>
-    <t>Fundos</t>
-  </si>
-  <si>
-    <t>AAGR11</t>
-  </si>
-  <si>
-    <t>BRCO11</t>
-  </si>
-  <si>
-    <t>HGRU11</t>
-  </si>
-  <si>
-    <t>JSRE11</t>
-  </si>
-  <si>
-    <t>LVBI11</t>
-  </si>
-  <si>
-    <t>PVBI11</t>
-  </si>
-  <si>
-    <t>Cenários</t>
-  </si>
-  <si>
-    <t>PorCotas</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Simulação de Investimento</t>
-  </si>
-  <si>
-    <t>Valores</t>
-  </si>
-  <si>
-    <t>Quanto Investir</t>
-  </si>
-  <si>
-    <t>Por Quantos Anos</t>
-  </si>
-  <si>
-    <t>Rendimento Percentual Mensal</t>
-  </si>
-  <si>
-    <t>Valor Total Recebido no Período</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>BTGL11</t>
-  </si>
-  <si>
-    <t>BTG PACTUAL LOGÍSTICA FII - BTLG11</t>
-  </si>
-  <si>
-    <t>Dividend Yield (a.m)</t>
-  </si>
-  <si>
-    <t>XLPG11</t>
-  </si>
-  <si>
-    <t>VBI PRIME PROPERTIES FII - PVBI11</t>
-  </si>
-  <si>
-    <t>RBFR11</t>
-  </si>
-  <si>
-    <t>RBR ALPHA FUNDO DE FUNDOS FII - RBRF11</t>
-  </si>
-  <si>
-    <t>Valor da Cota</t>
-  </si>
-  <si>
-    <t>Dividend Yield (% a.m)</t>
-  </si>
-  <si>
-    <r>
-      <t>Obs: Cenários mais complexos podem ser feitos na guia "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>SIMULE UMA COMPRA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
   </si>
   <si>
     <r>
@@ -386,10 +266,55 @@
     </r>
   </si>
   <si>
-    <t>Fonte:</t>
+    <t>Dividendo</t>
   </si>
   <si>
-    <t>https://conteudos.xpi.com.br/fundos-imobiliarios/top-25-fundos-imobiliarios/</t>
+    <r>
+      <t>Obs: Cenários mais complexos podem ser feitos na guia "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>SIMULE UMA COMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Total do Valor Investido</t>
+  </si>
+  <si>
+    <t>Total dos Dividendos</t>
+  </si>
+  <si>
+    <t>Crie seu Portfólio de Investimentos</t>
+  </si>
+  <si>
+    <t>Valor da Cota</t>
+  </si>
+  <si>
+    <t>Dividend Yield (% a.m)</t>
+  </si>
+  <si>
+    <t>Valor do Dividendo</t>
+  </si>
+  <si>
+    <t>HGLG11</t>
+  </si>
+  <si>
+    <t>BTHF11</t>
   </si>
   <si>
     <r>
@@ -416,7 +341,82 @@
     </r>
   </si>
   <si>
+    <t>Fonte:</t>
+  </si>
+  <si>
+    <t>https://conteudos.xpi.com.br/fundos-imobiliarios/top-25-fundos-imobiliarios/</t>
+  </si>
+  <si>
+    <t>Fundos</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Dividend Yield (a.m)</t>
+  </si>
+  <si>
+    <t>BTGL11</t>
+  </si>
+  <si>
+    <t>BTG PACTUAL LOGÍSTICA FII - BTLG11</t>
+  </si>
+  <si>
+    <t>PVBI11</t>
+  </si>
+  <si>
+    <t>XLPG11</t>
+  </si>
+  <si>
+    <t>VBI PRIME PROPERTIES FII - PVBI11</t>
+  </si>
+  <si>
+    <t>HGRU11</t>
+  </si>
+  <si>
+    <t>BRCO11</t>
+  </si>
+  <si>
+    <t>LVBI11</t>
+  </si>
+  <si>
+    <t>RBFR11</t>
+  </si>
+  <si>
+    <t>RBR ALPHA FUNDO DE FUNDOS FII - RBRF11</t>
+  </si>
+  <si>
     <t>Última Atualização:</t>
+  </si>
+  <si>
+    <t>Cenários</t>
+  </si>
+  <si>
+    <t>PorCotas</t>
+  </si>
+  <si>
+    <t>Simulação de Investimento</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>AAGR11</t>
+  </si>
+  <si>
+    <t>Quanto Investir</t>
+  </si>
+  <si>
+    <t>Por Quantos Anos</t>
+  </si>
+  <si>
+    <t>Rendimento Percentual Mensal</t>
+  </si>
+  <si>
+    <t>Valor Total Recebido no Período</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="169" formatCode="d/m/yy\ h:mm;@"/>
+    <numFmt numFmtId="168" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -950,6 +950,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -989,7 +990,6 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="3" builtinId="8"/>
@@ -2133,8 +2133,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8851900" y="4733011"/>
-          <a:ext cx="2482850" cy="2188489"/>
+          <a:off x="8843433" y="4770405"/>
+          <a:ext cx="2491317" cy="2183551"/>
           <a:chOff x="8864600" y="1409700"/>
           <a:chExt cx="2381250" cy="2482850"/>
         </a:xfrm>
@@ -4150,7 +4150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7111FF89-C1BF-4436-BD49-7A0BA02D9CC0}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -4184,11 +4184,11 @@
       <c r="H5" s="14"/>
       <c r="J5" s="15">
         <f ca="1">NOW()</f>
-        <v>45810.378574189817</v>
+        <v>45810.415344791669</v>
       </c>
       <c r="K5" s="16">
         <f ca="1">NOW()</f>
-        <v>45810.378574189817</v>
+        <v>45810.415344791669</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
@@ -4204,12 +4204,12 @@
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B7" s="11"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -4239,7 +4239,7 @@
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B9" s="11"/>
       <c r="C9" s="23" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D9" s="24">
         <v>1</v>
@@ -4334,12 +4334,12 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B14" s="11"/>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="12" t="e">
         <f>_xlfn.XLOOKUP(C9,#REF!,#REF!)</f>
         <v>#REF!</v>
@@ -4372,7 +4372,7 @@
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B16" s="11"/>
       <c r="C16" s="31" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D16" s="32">
         <v>1001</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="20" spans="2:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C20" s="11" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
         <v>6</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="21" spans="2:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C21" s="11" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G21" s="3" t="e">
         <f>_xlfn.XLOOKUP(C16,#REF!,#REF!)</f>
@@ -4580,7 +4580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E824B8-5507-4744-A3CF-67AD1152228F}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4592,7 +4592,7 @@
     <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.54296875" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.54296875" customWidth="1"/>
@@ -4635,10 +4635,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -4649,15 +4649,15 @@
     </row>
     <row r="8" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="11"/>
-      <c r="G8" s="60">
+      <c r="G8" s="61">
         <f>SUM('Simule uma Compra'!$F$13:$F$21)</f>
         <v>3</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="67">
         <f>SUM('Simule uma Compra'!$G$13:$G$21)</f>
         <v>481.86</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="63">
         <f>SUM('Simule uma Compra'!$I$13:$I$21)</f>
         <v>4.4712899999999998</v>
       </c>
@@ -4670,9 +4670,9 @@
     </row>
     <row r="9" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="11"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="63"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -4695,14 +4695,14 @@
     </row>
     <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B11" s="11"/>
-      <c r="D11" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
+      <c r="D11" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="11" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(D16,#REF!,#REF!),"")</f>
         <v/>
@@ -4720,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F12" s="52" t="s">
         <v>2</v>
@@ -4729,10 +4729,10 @@
         <v>3</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J12" s="11" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(D17,#REF!,#REF!),"")</f>
@@ -4748,7 +4748,7 @@
     <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B13" s="11"/>
       <c r="D13" s="40" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E13" s="39">
         <v>11.12</v>
@@ -4781,7 +4781,7 @@
     <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B14" s="11"/>
       <c r="D14" s="40" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E14" s="39">
         <v>235.37</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="24" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="D24" s="11" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5038,8 +5038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C06EDB-425C-449D-8544-82EBC44E4B40}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5047,7 +5047,7 @@
     <col min="1" max="1" width="20.54296875" style="19" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" customWidth="1"/>
     <col min="4" max="4" width="83.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5057,32 +5057,32 @@
     <row r="4" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E6" s="51" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C8" s="46" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4">
         <v>100.36</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C9" s="47" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D9" t="e" vm="1">
         <v>#VALUE!</v>
@@ -5110,10 +5110,10 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C10" s="46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4">
         <v>101.65</v>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C11" s="48" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D11" t="e" vm="2">
         <v>#VALUE!</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C12" s="48" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D12" s="45" t="e" vm="3">
         <v>#VALUE!</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C13" s="48" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D13" s="45" t="e" vm="4">
         <v>#VALUE!</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C14" s="48" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D14" s="45" t="e" vm="5">
         <v>#VALUE!</v>
@@ -5257,10 +5257,10 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C19" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4">
         <v>7.09</v>
@@ -5323,9 +5323,9 @@
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D25" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="67">
+        <v>36</v>
+      </c>
+      <c r="E25" s="54">
         <v>45810.378335763889</v>
       </c>
     </row>
@@ -5360,10 +5360,10 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
@@ -5383,15 +5383,15 @@
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <f>1</f>
@@ -5410,7 +5410,7 @@
         <v>#REF!</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="L4" s="1">
         <v>200</v>
@@ -5429,7 +5429,7 @@
         <v>#REF!</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="L5" s="2">
         <v>3</v>
@@ -5448,7 +5448,7 @@
         <v>#REF!</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L6" s="3">
         <v>0.01</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="K9" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="L9" s="4">
         <f>FV(L6,L5*12,-L4,1)</f>

--- a/Ferramenta de Simulação de Fundos Imobiliários.xlsx
+++ b/Ferramenta de Simulação de Fundos Imobiliários.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617F5944-9DB1-4CDB-BF15-D7B1B73D727B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CE7EF6-3E54-4747-9EAB-B502D6692FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="480" xr2:uid="{65976C1F-B8C6-4EB9-9C73-3728E219A18B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="480" activeTab="1" xr2:uid="{65976C1F-B8C6-4EB9-9C73-3728E219A18B}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulações" sheetId="1" r:id="rId1"/>
@@ -887,7 +887,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -926,9 +926,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -943,13 +940,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -978,17 +972,45 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -997,7 +1019,228 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1038,217 +1281,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3082,22 +3114,22 @@
     <v>91.29</v>
     <v>65.290000000000006</v>
     <v>BVMF</v>
-    <v>79.81</v>
-    <v>78.150000000000006</v>
+    <v>78.77</v>
+    <v>77.8</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>78.48</v>
-    <v>45807.958344907405</v>
+    <v>79.19</v>
+    <v>45810.56653935185</v>
     <v>0</v>
     <v>BRL</v>
     <v>FII VBI PRIME PROPERTIES CF</v>
-    <v>78.599999999999994</v>
-    <v>79.69</v>
+    <v>78.19</v>
+    <v>78.010000000000005</v>
     <v>PVBI11</v>
     <v>Fundos mais negociados</v>
     <v>FII VBI PRIME PROPERTIES CF (BVMF:PVBI11)</v>
-    <v>1.21</v>
-    <v>1.5418000000000001E-2</v>
-    <v>54391</v>
+    <v>-1.18</v>
+    <v>-1.4900999999999999E-2</v>
+    <v>8178</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -3122,22 +3154,22 @@
     <v>65.569999999999993</v>
     <v>49.59</v>
     <v>BVMF</v>
-    <v>65.16</v>
-    <v>64.040000000000006</v>
+    <v>64.58</v>
+    <v>63.71</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>64.599999999999994</v>
-    <v>45807.958344907405</v>
+    <v>64.52</v>
+    <v>45810.56645428203</v>
     <v>3</v>
     <v>BRL</v>
     <v>FII JS REAL ESTATE MULTIGESTAO ETF</v>
-    <v>64.69</v>
-    <v>65</v>
+    <v>63.71</v>
+    <v>64.11</v>
     <v>JSRE11</v>
     <v>Fundos mais negociados</v>
     <v>FII JS REAL ESTATE MULTIGESTAO ETF (BVMF:JSRE11)</v>
-    <v>0.4</v>
-    <v>6.1919999999999996E-3</v>
-    <v>24412</v>
+    <v>-0.41</v>
+    <v>-6.3549999999999995E-3</v>
+    <v>5193</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -3162,22 +3194,22 @@
     <v>125.99</v>
     <v>102.53</v>
     <v>BVMF</v>
-    <v>123.4</v>
-    <v>121.91</v>
+    <v>122.59</v>
+    <v>121.86</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>122.55</v>
-    <v>45807.958344907405</v>
+    <v>121.6</v>
+    <v>45810.566529803124</v>
     <v>6</v>
     <v>BRL</v>
     <v>CSHG RENDA URBANA FII CF</v>
-    <v>122.75</v>
     <v>122.5</v>
+    <v>121.89</v>
     <v>HGRU11</v>
     <v>Fundos mais negociados</v>
     <v>CSHG RENDA URBANA FII CF (BVMF:HGRU11)</v>
-    <v>-0.05</v>
-    <v>-4.0800000000000005E-4</v>
-    <v>32960</v>
+    <v>0.28999999999999998</v>
+    <v>2.385E-3</v>
+    <v>2181</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -3202,22 +3234,22 @@
     <v>113.3</v>
     <v>89.6</v>
     <v>BVMF</v>
-    <v>109.86</v>
-    <v>109</v>
+    <v>109.69</v>
+    <v>108.45</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>109</v>
-    <v>45807.958344907405</v>
+    <v>108.43</v>
+    <v>45810.566550925927</v>
     <v>9</v>
     <v>BRL</v>
     <v>BRESCO LOGISTICA - FDO INV IMOB</v>
-    <v>109</v>
-    <v>109.3</v>
+    <v>108.86</v>
+    <v>108.72</v>
     <v>BRCO11</v>
     <v>Fundos mais negociados</v>
     <v>BRESCO LOGISTICA - FDO INV IMOB (BVMF:BRCO11)</v>
-    <v>0.3</v>
-    <v>2.7520000000000001E-3</v>
-    <v>22335</v>
+    <v>0.28999999999999998</v>
+    <v>2.6750000000000003E-3</v>
+    <v>6070</v>
   </rv>
   <rv s="2">
     <v>10</v>
@@ -3242,22 +3274,22 @@
     <v>108.58</v>
     <v>84.49</v>
     <v>BVMF</v>
-    <v>101.88</v>
-    <v>100.58</v>
+    <v>101.23</v>
+    <v>100.3</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>101.58</v>
-    <v>45807.958344907405</v>
+    <v>100.83</v>
+    <v>45810.566514375001</v>
     <v>12</v>
     <v>BRL</v>
     <v>FDO INV IMOB VBI LOGISTICO ETF</v>
-    <v>101.42</v>
-    <v>101.58</v>
+    <v>101.23</v>
+    <v>100.91</v>
     <v>LVBI11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB VBI LOGISTICO ETF (BVMF:LVBI11)</v>
-    <v>0</v>
-    <v>0</v>
-    <v>34059</v>
+    <v>0.08</v>
+    <v>7.9339999999999999E-4</v>
+    <v>1599</v>
   </rv>
   <rv s="2">
     <v>13</v>
@@ -3282,22 +3314,22 @@
     <v>110.97</v>
     <v>81.849999999999994</v>
     <v>BVMF</v>
-    <v>104.3</v>
-    <v>102.98</v>
+    <v>104.17</v>
+    <v>103.18</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>102.98</v>
-    <v>45807.958344907405</v>
+    <v>103.5</v>
+    <v>45810.566562499997</v>
     <v>15</v>
     <v>BRL</v>
     <v>VINCI SHOPPING CENTERS FDO INVEST IMOB CF</v>
-    <v>103.01</v>
-    <v>104.3</v>
+    <v>103.89</v>
+    <v>103.46</v>
     <v>VISC11</v>
     <v>Fundos mais negociados</v>
     <v>VINCI SHOPPING CENTERS FDO INVEST IMOB CF (BVMF:VISC11)</v>
-    <v>1.32</v>
-    <v>1.2818000000000001E-2</v>
-    <v>32067</v>
+    <v>-0.04</v>
+    <v>-3.8649999999999996E-4</v>
+    <v>6784</v>
   </rv>
   <rv s="2">
     <v>16</v>
@@ -3322,22 +3354,22 @@
     <v>104.8</v>
     <v>90</v>
     <v>BVMF</v>
-    <v>104.8</v>
-    <v>104.16</v>
+    <v>103.95</v>
+    <v>103.23</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>104.35</v>
-    <v>45807.958344907405</v>
+    <v>103.42</v>
+    <v>45810.566573529686</v>
     <v>18</v>
     <v>BRL</v>
     <v>FDO INV IMOB KINEA RENDIMENTOS ETF</v>
-    <v>104.37</v>
-    <v>104.62</v>
+    <v>103.55</v>
+    <v>103.59</v>
     <v>KNCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB KINEA RENDIMENTOS ETF (BVMF:KNCR11)</v>
-    <v>0.27</v>
-    <v>2.5869999999999999E-3</v>
-    <v>120194</v>
+    <v>0.17</v>
+    <v>1.6439999999999998E-3</v>
+    <v>24885</v>
   </rv>
   <rv s="2">
     <v>19</v>
@@ -3362,22 +3394,22 @@
     <v>85.86</v>
     <v>66.319999999999993</v>
     <v>BVMF</v>
-    <v>85.61</v>
-    <v>84.82</v>
+    <v>85.8</v>
+    <v>85.28</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>85.5</v>
-    <v>45807.958344907405</v>
+    <v>85.49</v>
+    <v>45810.566442464842</v>
     <v>21</v>
     <v>BRL</v>
     <v>FDO INV. MAUA CAPITAL RECEBIVEIS IMOB. - FII ETF</v>
-    <v>85.2</v>
-    <v>85.49</v>
+    <v>85.71</v>
+    <v>85.5</v>
     <v>MCCI11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV. MAUA CAPITAL RECEBIVEIS IMOB. - FII ETF (BVMF:MCCI11)</v>
-    <v>-0.01</v>
-    <v>-1.17E-4</v>
-    <v>19324</v>
+    <v>0.01</v>
+    <v>1.17E-4</v>
+    <v>1913</v>
   </rv>
   <rv s="2">
     <v>22</v>
@@ -3399,25 +3431,25 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>87.97</v>
+    <v>88.41</v>
     <v>69.900000000000006</v>
     <v>BVMF</v>
+    <v>88.41</v>
+    <v>87.37</v>
+    <v>B3 - Brazil Stock Exchange</v>
     <v>87.97</v>
-    <v>86.72</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>87.05</v>
-    <v>45807.958344907405</v>
+    <v>45810.566527777781</v>
     <v>24</v>
     <v>BRL</v>
     <v>FII RBR RENDIMENTO HIGH GRADE CF</v>
-    <v>87.1</v>
-    <v>87.97</v>
+    <v>88.41</v>
+    <v>87.5</v>
     <v>RBRR11</v>
     <v>Fundos mais negociados</v>
     <v>FII RBR RENDIMENTO HIGH GRADE CF (BVMF:RBRR11)</v>
-    <v>0.92</v>
-    <v>1.0569E-2</v>
-    <v>23377</v>
+    <v>-0.47</v>
+    <v>-5.3429999999999997E-3</v>
+    <v>3176</v>
   </rv>
   <rv s="2">
     <v>25</v>
@@ -3442,22 +3474,22 @@
     <v>89</v>
     <v>67.56</v>
     <v>BVMF</v>
-    <v>83.63</v>
     <v>82.65</v>
+    <v>82.06</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>82.8</v>
-    <v>45807.958344907405</v>
+    <v>82.65</v>
+    <v>45810.566546307811</v>
     <v>27</v>
     <v>BRL</v>
     <v>SDI PROPERTIES - FDO INV IMOB ETF</v>
-    <v>82.98</v>
-    <v>83.6</v>
+    <v>82.65</v>
+    <v>82.6</v>
     <v>TEPP11</v>
     <v>Fundos mais negociados</v>
     <v>SDI PROPERTIES - FDO INV IMOB ETF (BVMF:TEPP11)</v>
-    <v>0.8</v>
-    <v>9.6619999999999987E-3</v>
-    <v>11653</v>
+    <v>-0.05</v>
+    <v>-6.0499999999999996E-4</v>
+    <v>1302</v>
   </rv>
   <rv s="2">
     <v>28</v>
@@ -3482,22 +3514,22 @@
     <v>88.8</v>
     <v>67.739999999999995</v>
     <v>BVMF</v>
-    <v>87.27</v>
-    <v>86.1</v>
+    <v>87.48</v>
+    <v>86.81</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>86.46</v>
-    <v>45807.958344907405</v>
+    <v>86.89</v>
+    <v>45810.56657365703</v>
     <v>30</v>
     <v>BRL</v>
     <v>FDO INV IMOB VBI CRI ETF</v>
-    <v>86.6</v>
-    <v>86.89</v>
+    <v>87.48</v>
+    <v>86.9</v>
     <v>CVBI11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB VBI CRI ETF (BVMF:CVBI11)</v>
-    <v>0.43</v>
-    <v>4.973E-3</v>
-    <v>12118</v>
+    <v>0.01</v>
+    <v>1.1509999999999999E-4</v>
+    <v>1663</v>
   </rv>
   <rv s="2">
     <v>31</v>
@@ -3522,22 +3554,22 @@
     <v>81.95</v>
     <v>62.64</v>
     <v>BVMF</v>
-    <v>80.3</v>
-    <v>79.900000000000006</v>
+    <v>79.86</v>
+    <v>79.22</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>79.95</v>
-    <v>45807.958344907405</v>
+    <v>79.069999999999993</v>
+    <v>45810.566467082812</v>
     <v>33</v>
     <v>BRL</v>
     <v>XP CREDITO IMOBILIARIO REIT</v>
-    <v>80.25</v>
-    <v>80.02</v>
+    <v>79.59</v>
+    <v>79.349999999999994</v>
     <v>XPCI11</v>
     <v>Fundos mais negociados</v>
     <v>XP CREDITO IMOBILIARIO REIT (BVMF:XPCI11)</v>
-    <v>7.0000000000000007E-2</v>
-    <v>8.7549999999999998E-4</v>
-    <v>12528</v>
+    <v>0.28000000000000003</v>
+    <v>3.5410000000000003E-3</v>
+    <v>1848</v>
   </rv>
   <rv s="2">
     <v>34</v>
@@ -3796,17 +3828,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0543B2F5-FB81-4AF7-9E25-ED4D125342A5}" name="Tabela4" displayName="Tabela4" ref="D12:I21" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0543B2F5-FB81-4AF7-9E25-ED4D125342A5}" name="Tabela4" displayName="Tabela4" ref="D12:I21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="D12:I21" xr:uid="{0543B2F5-FB81-4AF7-9E25-ED4D125342A5}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BC980AD6-F20D-429F-8FB7-5228AA29A83B}" name="Nome do Fundo" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{761E450A-D9C8-4472-862B-B2F18AC4850F}" name="Valor da Cota" dataDxfId="7" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{BBF335A0-43C1-4FEB-B727-2AA0707B995D}" name="Quantidade de Cotas" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{50133317-090B-465E-BF16-DA88978BAC14}" name="Valor Investido" dataDxfId="5" dataCellStyle="Moeda">
+    <tableColumn id="1" xr3:uid="{BC980AD6-F20D-429F-8FB7-5228AA29A83B}" name="Nome do Fundo" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{761E450A-D9C8-4472-862B-B2F18AC4850F}" name="Valor da Cota" dataDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{BBF335A0-43C1-4FEB-B727-2AA0707B995D}" name="Quantidade de Cotas" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{50133317-090B-465E-BF16-DA88978BAC14}" name="Valor Investido" dataDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Quantidade de Cotas]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{555CA397-7F15-4BBA-9F1E-37141CBBEB0D}" name="Dividend Yield (% a.m)" dataDxfId="4" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{E6CBACC8-73EA-4FC4-80C7-83DD827DC9D0}" name="Valor do Dividendo" dataDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="6" xr3:uid="{555CA397-7F15-4BBA-9F1E-37141CBBEB0D}" name="Dividend Yield (% a.m)" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{E6CBACC8-73EA-4FC4-80C7-83DD827DC9D0}" name="Valor do Dividendo" dataDxfId="0" dataCellStyle="Moeda">
       <calculatedColumnFormula>(Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Dividend Yield (% a.m)]])*Tabela4[[#This Row],[Quantidade de Cotas]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3818,14 +3850,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D2FF0-1630-46FC-8166-705E55E16699}" name="Fundos" displayName="Fundos" ref="C7:F22" totalsRowShown="0">
   <autoFilter ref="C7:F22" xr:uid="{361D2FF0-1630-46FC-8166-705E55E16699}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8EB19251-27F9-4B8D-A1A7-C1AA6AFE2D06}" name="Fundos" dataDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="1" xr3:uid="{8EB19251-27F9-4B8D-A1A7-C1AA6AFE2D06}" name="Fundos" dataDxfId="11" dataCellStyle="Moeda">
       <calculatedColumnFormula array="1">_FV(D8,"Símbolo do ticker",TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{1EF2E244-3B1C-4709-AE36-32BF8CD39144}" name="Nome"/>
-    <tableColumn id="3" xr3:uid="{51B337B0-7620-4834-AE95-4A3322994935}" name="Valor" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{51B337B0-7620-4834-AE95-4A3322994935}" name="Valor" dataDxfId="10">
       <calculatedColumnFormula array="1">_FV(D8,"Preço")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9CFD60D9-D8F7-4EFB-8B05-64A4D5BC38A0}" name="Dividend Yield (a.m)" dataDxfId="0" dataCellStyle="Porcentagem"/>
+    <tableColumn id="4" xr3:uid="{9CFD60D9-D8F7-4EFB-8B05-64A4D5BC38A0}" name="Dividend Yield (a.m)" dataDxfId="9" dataCellStyle="Porcentagem"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4150,8 +4182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7111FF89-C1BF-4436-BD49-7A0BA02D9CC0}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4184,11 +4216,11 @@
       <c r="H5" s="14"/>
       <c r="J5" s="15">
         <f ca="1">NOW()</f>
-        <v>45810.415344791669</v>
+        <v>45810.454557523146</v>
       </c>
       <c r="K5" s="16">
         <f ca="1">NOW()</f>
-        <v>45810.415344791669</v>
+        <v>45810.454557523146</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
@@ -4204,12 +4236,12 @@
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B7" s="11"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -4246,11 +4278,11 @@
       </c>
       <c r="E9" s="25">
         <f ca="1">_xlfn.XLOOKUP(C9,Fundos[Fundos],Fundos[Valor],"Valor não Encontrado",0)</f>
-        <v>65</v>
+        <v>64.11</v>
       </c>
       <c r="F9" s="26">
         <f ca="1">_xlfn.XLOOKUP(C9,Fundos[Fundos],Fundos[Valor])*_xlfn.XLOOKUP(C9,Fundos[Fundos],Fundos[Dividend Yield (a.m)],"Valor não Encontrado",0)</f>
-        <v>0.55466666666666664</v>
+        <v>0.547072</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -4266,11 +4298,11 @@
       </c>
       <c r="E10" s="27">
         <f ca="1">$E$9*D10</f>
-        <v>650</v>
+        <v>641.1</v>
       </c>
       <c r="F10" s="26">
         <f ca="1">($E$9*_xlfn.XLOOKUP($C$9,Fundos[Fundos],Fundos[Dividend Yield (a.m)],"Valor não Encontrado",0))*D10</f>
-        <v>5.5466666666666669</v>
+        <v>5.47072</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -4286,11 +4318,11 @@
       </c>
       <c r="E11" s="27">
         <f ca="1">$E$9*D11</f>
-        <v>6500</v>
+        <v>6411</v>
       </c>
       <c r="F11" s="26">
         <f ca="1">($E$9*_xlfn.XLOOKUP($C$9,Fundos[Fundos],Fundos[Dividend Yield (a.m)],"Valor não Encontrado",0))*D11</f>
-        <v>55.466666666666661</v>
+        <v>54.7072</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -4306,11 +4338,11 @@
       </c>
       <c r="E12" s="27">
         <f ca="1">$E$9*D12</f>
-        <v>65000</v>
+        <v>64110</v>
       </c>
       <c r="F12" s="26">
         <f ca="1">($E$9*_xlfn.XLOOKUP($C$9,Fundos[Fundos],Fundos[Dividend Yield (a.m)],"Valor não Encontrado",0))*D12</f>
-        <v>554.66666666666663</v>
+        <v>547.072</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -4334,12 +4366,12 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B14" s="11"/>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="12" t="e">
         <f>_xlfn.XLOOKUP(C9,#REF!,#REF!)</f>
         <v>#REF!</v>
@@ -4375,15 +4407,15 @@
         <v>5</v>
       </c>
       <c r="D16" s="32">
-        <v>1001</v>
+        <v>101</v>
       </c>
       <c r="E16" s="33">
         <f ca="1">_xlfn.XLOOKUP(C16,Fundos[Fundos],Fundos[Valor],"Valor não Encontrado",0)*D16</f>
-        <v>65065</v>
+        <v>6475.11</v>
       </c>
       <c r="F16" s="34">
         <f ca="1">IF($D$16=1,_xlfn.XLOOKUP(C16,Fundos[Fundos],Fundos[Valor])*_xlfn.XLOOKUP(C16,Fundos[Fundos],Fundos[Dividend Yield (a.m)]),_xlfn.XLOOKUP(C16,Fundos[Fundos],Fundos[Valor])*_xlfn.XLOOKUP(C16,Fundos[Fundos],Fundos[Dividend Yield (a.m)])*D16)</f>
-        <v>555.22133333333329</v>
+        <v>55.254272</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -4549,6 +4581,10 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="D16" name="Intervalo1"/>
+  </protectedRanges>
   <mergeCells count="2">
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C7:F7"/>
@@ -4578,10 +4614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E824B8-5507-4744-A3CF-67AD1152228F}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4631,13 +4667,13 @@
     </row>
     <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B7" s="11"/>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="40" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="11"/>
@@ -4649,15 +4685,15 @@
     </row>
     <row r="8" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="11"/>
-      <c r="G8" s="61">
+      <c r="G8" s="55">
         <f>SUM('Simule uma Compra'!$F$13:$F$21)</f>
         <v>3</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="58">
         <f>SUM('Simule uma Compra'!$G$13:$G$21)</f>
         <v>481.86</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I8" s="57">
         <f>SUM('Simule uma Compra'!$I$13:$I$21)</f>
         <v>4.4712899999999998</v>
       </c>
@@ -4670,9 +4706,9 @@
     </row>
     <row r="9" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="11"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="63"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="57"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -4695,14 +4731,14 @@
     </row>
     <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B11" s="11"/>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
       <c r="J11" s="11" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(D16,#REF!,#REF!),"")</f>
         <v/>
@@ -4716,22 +4752,22 @@
     </row>
     <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B12" s="11"/>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="62" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="11" t="str">
@@ -4747,23 +4783,23 @@
     </row>
     <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B13" s="11"/>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="65">
         <v>11.12</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="66">
         <v>1</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="65">
         <f>Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>11.12</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="67">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="65">
         <f>(Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Dividend Yield (% a.m)]])*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>9.3407999999999991E-2</v>
       </c>
@@ -4780,23 +4816,23 @@
     </row>
     <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B14" s="11"/>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="65">
         <v>235.37</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="66">
         <v>2</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="65">
         <f>Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>470.74</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="67">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="65">
         <f>(Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Dividend Yield (% a.m)]])*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>4.3778819999999996</v>
       </c>
@@ -4813,15 +4849,15 @@
     </row>
     <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B15" s="11"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39">
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="65">
         <f>Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>0</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="39">
+      <c r="H15" s="67"/>
+      <c r="I15" s="65">
         <f>(Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Dividend Yield (% a.m)]])*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>0</v>
       </c>
@@ -4838,15 +4874,15 @@
     </row>
     <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B16" s="11"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39">
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="65">
         <f>Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>0</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="39">
+      <c r="H16" s="67"/>
+      <c r="I16" s="65">
         <f>(Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Dividend Yield (% a.m)]])*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>0</v>
       </c>
@@ -4861,18 +4897,18 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39">
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="65">
         <f>Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>0</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="39">
+      <c r="H17" s="67"/>
+      <c r="I17" s="65">
         <f>(Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Dividend Yield (% a.m)]])*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>0</v>
       </c>
@@ -4884,18 +4920,18 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39">
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="65">
         <f>Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>0</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="39">
+      <c r="H18" s="67"/>
+      <c r="I18" s="65">
         <f>(Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Dividend Yield (% a.m)]])*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>0</v>
       </c>
@@ -4907,18 +4943,18 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39">
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="65">
         <f>Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>0</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="39">
+      <c r="H19" s="67"/>
+      <c r="I19" s="65">
         <f>(Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Dividend Yield (% a.m)]])*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>0</v>
       </c>
@@ -4930,18 +4966,18 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39">
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="65">
         <f>Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>0</v>
       </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="39">
+      <c r="H20" s="67"/>
+      <c r="I20" s="65">
         <f>(Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Dividend Yield (% a.m)]])*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>0</v>
       </c>
@@ -4953,18 +4989,18 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39">
+      <c r="D21" s="64"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="65">
         <f>Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>0</v>
       </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="39">
+      <c r="H21" s="67"/>
+      <c r="I21" s="65">
         <f>(Tabela4[[#This Row],[Valor da Cota]]*Tabela4[[#This Row],[Dividend Yield (% a.m)]])*Tabela4[[#This Row],[Quantidade de Cotas]]</f>
         <v>0</v>
       </c>
@@ -4976,10 +5012,16 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="70"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -4987,15 +5029,16 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -5003,12 +5046,1521 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="2:16" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="D24" s="11" t="s">
+    <row r="24" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="70" t="s">
         <v>19</v>
       </c>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="68"/>
+      <c r="Y27" s="68"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="68"/>
+      <c r="Y28" s="68"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="68"/>
+      <c r="X29" s="68"/>
+      <c r="Y29" s="68"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="68"/>
+      <c r="Y30" s="68"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="68"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="68"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="68"/>
+      <c r="Y31" s="68"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="68"/>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="68"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="68"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="68"/>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="68"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68"/>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="68"/>
+      <c r="S48" s="68"/>
+      <c r="T48" s="68"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="68"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="68"/>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="68"/>
+      <c r="Q49" s="68"/>
+      <c r="R49" s="68"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="68"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="68"/>
+      <c r="W49" s="68"/>
+      <c r="X49" s="68"/>
+      <c r="Y49" s="68"/>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="68"/>
+      <c r="Q50" s="68"/>
+      <c r="R50" s="68"/>
+      <c r="S50" s="68"/>
+      <c r="T50" s="68"/>
+      <c r="U50" s="68"/>
+      <c r="V50" s="68"/>
+      <c r="W50" s="68"/>
+      <c r="X50" s="68"/>
+      <c r="Y50" s="68"/>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="68"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="68"/>
+      <c r="Q51" s="68"/>
+      <c r="R51" s="68"/>
+      <c r="S51" s="68"/>
+      <c r="T51" s="68"/>
+      <c r="U51" s="68"/>
+      <c r="V51" s="68"/>
+      <c r="W51" s="68"/>
+      <c r="X51" s="68"/>
+      <c r="Y51" s="68"/>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="68"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="68"/>
+      <c r="Q52" s="68"/>
+      <c r="R52" s="68"/>
+      <c r="S52" s="68"/>
+      <c r="T52" s="68"/>
+      <c r="U52" s="68"/>
+      <c r="V52" s="68"/>
+      <c r="W52" s="68"/>
+      <c r="X52" s="68"/>
+      <c r="Y52" s="68"/>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="68"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="68"/>
+      <c r="Q53" s="68"/>
+      <c r="R53" s="68"/>
+      <c r="S53" s="68"/>
+      <c r="T53" s="68"/>
+      <c r="U53" s="68"/>
+      <c r="V53" s="68"/>
+      <c r="W53" s="68"/>
+      <c r="X53" s="68"/>
+      <c r="Y53" s="68"/>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="68"/>
+      <c r="Q54" s="68"/>
+      <c r="R54" s="68"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="68"/>
+      <c r="W54" s="68"/>
+      <c r="X54" s="68"/>
+      <c r="Y54" s="68"/>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="68"/>
+      <c r="R55" s="68"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="68"/>
+      <c r="U55" s="68"/>
+      <c r="V55" s="68"/>
+      <c r="W55" s="68"/>
+      <c r="X55" s="68"/>
+      <c r="Y55" s="68"/>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+      <c r="W56" s="68"/>
+      <c r="X56" s="68"/>
+      <c r="Y56" s="68"/>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
+      <c r="X57" s="68"/>
+      <c r="Y57" s="68"/>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="68"/>
+    </row>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="68"/>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="68"/>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
+      <c r="X61" s="68"/>
+      <c r="Y61" s="68"/>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="68"/>
+      <c r="P62" s="68"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="68"/>
+      <c r="W62" s="68"/>
+      <c r="X62" s="68"/>
+      <c r="Y62" s="68"/>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="68"/>
+      <c r="X63" s="68"/>
+      <c r="Y63" s="68"/>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="68"/>
+      <c r="O64" s="68"/>
+      <c r="P64" s="68"/>
+      <c r="Q64" s="68"/>
+      <c r="R64" s="68"/>
+      <c r="S64" s="68"/>
+      <c r="T64" s="68"/>
+      <c r="U64" s="68"/>
+      <c r="V64" s="68"/>
+      <c r="W64" s="68"/>
+      <c r="X64" s="68"/>
+      <c r="Y64" s="68"/>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="69"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="68"/>
+      <c r="O65" s="68"/>
+      <c r="P65" s="68"/>
+      <c r="Q65" s="68"/>
+      <c r="R65" s="68"/>
+      <c r="S65" s="68"/>
+      <c r="T65" s="68"/>
+      <c r="U65" s="68"/>
+      <c r="V65" s="68"/>
+      <c r="W65" s="68"/>
+      <c r="X65" s="68"/>
+      <c r="Y65" s="68"/>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="69"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="68"/>
+      <c r="M66" s="68"/>
+      <c r="N66" s="68"/>
+      <c r="O66" s="68"/>
+      <c r="P66" s="68"/>
+      <c r="Q66" s="68"/>
+      <c r="R66" s="68"/>
+      <c r="S66" s="68"/>
+      <c r="T66" s="68"/>
+      <c r="U66" s="68"/>
+      <c r="V66" s="68"/>
+      <c r="W66" s="68"/>
+      <c r="X66" s="68"/>
+      <c r="Y66" s="68"/>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B67" s="68"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="69"/>
+      <c r="J67" s="69"/>
+      <c r="K67" s="68"/>
+      <c r="L67" s="68"/>
+      <c r="M67" s="68"/>
+      <c r="N67" s="68"/>
+      <c r="O67" s="68"/>
+      <c r="P67" s="68"/>
+      <c r="Q67" s="68"/>
+      <c r="R67" s="68"/>
+      <c r="S67" s="68"/>
+      <c r="T67" s="68"/>
+      <c r="U67" s="68"/>
+      <c r="V67" s="68"/>
+      <c r="W67" s="68"/>
+      <c r="X67" s="68"/>
+      <c r="Y67" s="68"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B68" s="68"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="68"/>
+      <c r="M68" s="68"/>
+      <c r="N68" s="68"/>
+      <c r="O68" s="68"/>
+      <c r="P68" s="68"/>
+      <c r="Q68" s="68"/>
+      <c r="R68" s="68"/>
+      <c r="S68" s="68"/>
+      <c r="T68" s="68"/>
+      <c r="U68" s="68"/>
+      <c r="V68" s="68"/>
+      <c r="W68" s="68"/>
+      <c r="X68" s="68"/>
+      <c r="Y68" s="68"/>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B69" s="68"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="68"/>
+      <c r="L69" s="68"/>
+      <c r="M69" s="68"/>
+      <c r="N69" s="68"/>
+      <c r="O69" s="68"/>
+      <c r="P69" s="68"/>
+      <c r="Q69" s="68"/>
+      <c r="R69" s="68"/>
+      <c r="S69" s="68"/>
+      <c r="T69" s="68"/>
+      <c r="U69" s="68"/>
+      <c r="V69" s="68"/>
+      <c r="W69" s="68"/>
+      <c r="X69" s="68"/>
+      <c r="Y69" s="68"/>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B70" s="68"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="69"/>
+      <c r="I70" s="69"/>
+      <c r="J70" s="69"/>
+      <c r="K70" s="68"/>
+      <c r="L70" s="68"/>
+      <c r="M70" s="68"/>
+      <c r="N70" s="68"/>
+      <c r="O70" s="68"/>
+      <c r="P70" s="68"/>
+      <c r="Q70" s="68"/>
+      <c r="R70" s="68"/>
+      <c r="S70" s="68"/>
+      <c r="T70" s="68"/>
+      <c r="U70" s="68"/>
+      <c r="V70" s="68"/>
+      <c r="W70" s="68"/>
+      <c r="X70" s="68"/>
+      <c r="Y70" s="68"/>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="69"/>
+      <c r="K71" s="68"/>
+      <c r="L71" s="68"/>
+      <c r="M71" s="68"/>
+      <c r="N71" s="68"/>
+      <c r="O71" s="68"/>
+      <c r="P71" s="68"/>
+      <c r="Q71" s="68"/>
+      <c r="R71" s="68"/>
+      <c r="S71" s="68"/>
+      <c r="T71" s="68"/>
+      <c r="U71" s="68"/>
+      <c r="V71" s="68"/>
+      <c r="W71" s="68"/>
+      <c r="X71" s="68"/>
+      <c r="Y71" s="68"/>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B72" s="68"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="69"/>
+      <c r="K72" s="68"/>
+      <c r="L72" s="68"/>
+      <c r="M72" s="68"/>
+      <c r="N72" s="68"/>
+      <c r="O72" s="68"/>
+      <c r="P72" s="68"/>
+      <c r="Q72" s="68"/>
+      <c r="R72" s="68"/>
+      <c r="S72" s="68"/>
+      <c r="T72" s="68"/>
+      <c r="U72" s="68"/>
+      <c r="V72" s="68"/>
+      <c r="W72" s="68"/>
+      <c r="X72" s="68"/>
+      <c r="Y72" s="68"/>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B73" s="68"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="69"/>
+      <c r="J73" s="69"/>
+      <c r="K73" s="68"/>
+      <c r="L73" s="68"/>
+      <c r="M73" s="68"/>
+      <c r="N73" s="68"/>
+      <c r="O73" s="68"/>
+      <c r="P73" s="68"/>
+      <c r="Q73" s="68"/>
+      <c r="R73" s="68"/>
+      <c r="S73" s="68"/>
+      <c r="T73" s="68"/>
+      <c r="U73" s="68"/>
+      <c r="V73" s="68"/>
+      <c r="W73" s="68"/>
+      <c r="X73" s="68"/>
+      <c r="Y73" s="68"/>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B74" s="68"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
+      <c r="M74" s="68"/>
+      <c r="N74" s="68"/>
+      <c r="O74" s="68"/>
+      <c r="P74" s="68"/>
+      <c r="Q74" s="68"/>
+      <c r="R74" s="68"/>
+      <c r="S74" s="68"/>
+      <c r="T74" s="68"/>
+      <c r="U74" s="68"/>
+      <c r="V74" s="68"/>
+      <c r="W74" s="68"/>
+      <c r="X74" s="68"/>
+      <c r="Y74" s="68"/>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B75" s="68"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="69"/>
+      <c r="J75" s="69"/>
+      <c r="K75" s="68"/>
+      <c r="L75" s="68"/>
+      <c r="M75" s="68"/>
+      <c r="N75" s="68"/>
+      <c r="O75" s="68"/>
+      <c r="P75" s="68"/>
+      <c r="Q75" s="68"/>
+      <c r="R75" s="68"/>
+      <c r="S75" s="68"/>
+      <c r="T75" s="68"/>
+      <c r="U75" s="68"/>
+      <c r="V75" s="68"/>
+      <c r="W75" s="68"/>
+      <c r="X75" s="68"/>
+      <c r="Y75" s="68"/>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B76" s="68"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="68"/>
+      <c r="L76" s="68"/>
+      <c r="M76" s="68"/>
+      <c r="N76" s="68"/>
+      <c r="O76" s="68"/>
+      <c r="P76" s="68"/>
+      <c r="Q76" s="68"/>
+      <c r="R76" s="68"/>
+      <c r="S76" s="68"/>
+      <c r="T76" s="68"/>
+      <c r="U76" s="68"/>
+      <c r="V76" s="68"/>
+      <c r="W76" s="68"/>
+      <c r="X76" s="68"/>
+      <c r="Y76" s="68"/>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="68"/>
+      <c r="K77" s="68"/>
+      <c r="L77" s="68"/>
+      <c r="M77" s="68"/>
+      <c r="N77" s="68"/>
+      <c r="O77" s="68"/>
+      <c r="P77" s="68"/>
+      <c r="Q77" s="68"/>
+      <c r="R77" s="68"/>
+      <c r="S77" s="68"/>
+      <c r="T77" s="68"/>
+      <c r="U77" s="68"/>
+      <c r="V77" s="68"/>
+      <c r="W77" s="68"/>
+      <c r="X77" s="68"/>
+      <c r="Y77" s="68"/>
+    </row>
+    <row r="78" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B78" s="68"/>
+      <c r="C78" s="68"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="68"/>
+      <c r="I78" s="68"/>
+      <c r="J78" s="68"/>
+      <c r="K78" s="68"/>
+      <c r="L78" s="68"/>
+      <c r="M78" s="68"/>
+      <c r="N78" s="68"/>
+      <c r="O78" s="68"/>
+      <c r="P78" s="68"/>
+      <c r="Q78" s="68"/>
+      <c r="R78" s="68"/>
+      <c r="S78" s="68"/>
+      <c r="T78" s="68"/>
+      <c r="U78" s="68"/>
+      <c r="V78" s="68"/>
+      <c r="W78" s="68"/>
+      <c r="X78" s="68"/>
+      <c r="Y78" s="68"/>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="68"/>
+      <c r="I79" s="68"/>
+      <c r="J79" s="68"/>
+      <c r="K79" s="68"/>
+      <c r="L79" s="68"/>
+      <c r="M79" s="68"/>
+      <c r="N79" s="68"/>
+      <c r="O79" s="68"/>
+      <c r="P79" s="68"/>
+      <c r="Q79" s="68"/>
+      <c r="R79" s="68"/>
+      <c r="S79" s="68"/>
+      <c r="T79" s="68"/>
+      <c r="U79" s="68"/>
+      <c r="V79" s="68"/>
+      <c r="W79" s="68"/>
+      <c r="X79" s="68"/>
+      <c r="Y79" s="68"/>
+    </row>
+    <row r="80" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B80" s="68"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="68"/>
+      <c r="I80" s="68"/>
+      <c r="J80" s="68"/>
+      <c r="K80" s="68"/>
+      <c r="L80" s="68"/>
+      <c r="M80" s="68"/>
+      <c r="N80" s="68"/>
+      <c r="O80" s="68"/>
+      <c r="P80" s="68"/>
+      <c r="Q80" s="68"/>
+      <c r="R80" s="68"/>
+      <c r="S80" s="68"/>
+      <c r="T80" s="68"/>
+      <c r="U80" s="68"/>
+      <c r="V80" s="68"/>
+      <c r="W80" s="68"/>
+      <c r="X80" s="68"/>
+      <c r="Y80" s="68"/>
+    </row>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B81" s="68"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="68"/>
+      <c r="H81" s="68"/>
+      <c r="I81" s="68"/>
+      <c r="J81" s="68"/>
+      <c r="K81" s="68"/>
+      <c r="L81" s="68"/>
+      <c r="M81" s="68"/>
+      <c r="N81" s="68"/>
+      <c r="O81" s="68"/>
+      <c r="P81" s="68"/>
+      <c r="Q81" s="68"/>
+      <c r="R81" s="68"/>
+      <c r="S81" s="68"/>
+      <c r="T81" s="68"/>
+      <c r="U81" s="68"/>
+      <c r="V81" s="68"/>
+      <c r="W81" s="68"/>
+      <c r="X81" s="68"/>
+      <c r="Y81" s="68"/>
     </row>
   </sheetData>
+  <sheetProtection insertColumns="0" insertRows="0" sort="0" autoFilter="0"/>
+  <protectedRanges>
+    <protectedRange sqref="D13:I21" name="Intervalo1"/>
+  </protectedRanges>
   <mergeCells count="4">
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="I8:I9"/>
@@ -5017,7 +6569,7 @@
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="FII não encontrado" error="Digite novamente o nome do FII o qual pode ser consultado na planilha &quot;Fundos Imobiliários." promptTitle="Digite um Fundo Imobiliário" prompt="Você pode confirmar o nome na planilha &quot;Fundos Imobiliários&quot;._x000a_" sqref="D13:D21" xr:uid="{88FF9221-489C-4812-99BA-E8894AE4568F}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Digite um número válido" error="Digite um número inteiro de 1 a 1.000.000." promptTitle="Digite um Número Inteiro" prompt="Digite um Número Inteiro entre 1 e 1.000.000." sqref="F16:F21 F15 F13:F14" xr:uid="{77FE3DAA-F02E-409D-96BD-FE345BC7399F}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Digite um número válido" error="Digite um número inteiro de 1 a 1.000.000." promptTitle="Digite um Número Inteiro" prompt="Digite um Número Inteiro entre 1 e 1.000.000." sqref="F13:F21" xr:uid="{77FE3DAA-F02E-409D-96BD-FE345BC7399F}">
       <formula1>1</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
@@ -5027,6 +6579,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="G13:G21 I13:I14 I16:I21" unlockedFormula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -5039,7 +6594,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5056,10 +6611,10 @@
     <row r="3" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="46" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5078,7 +6633,7 @@
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="43" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
@@ -5087,13 +6642,13 @@
       <c r="E8" s="4">
         <v>100.36</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="41">
         <f>9.71/12/100</f>
         <v>8.0916666666666671E-3</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="44" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="e" vm="1">
@@ -5101,15 +6656,15 @@
       </c>
       <c r="E9" s="4" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">_FV(D9,"Preço")</f>
-        <v>79.69</v>
-      </c>
-      <c r="F9" s="44">
+        <v>78.010000000000005</v>
+      </c>
+      <c r="F9" s="41">
         <f>10.09/12/100</f>
         <v>8.4083333333333336E-3</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
@@ -5118,13 +6673,13 @@
       <c r="E10" s="4">
         <v>101.65</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="41">
         <f>10.23/12/100</f>
         <v>8.5249999999999996E-3</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="e" vm="2">
@@ -5132,63 +6687,63 @@
       </c>
       <c r="E11" s="4" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">_FV(D11,"Preço")</f>
-        <v>65</v>
-      </c>
-      <c r="F11" s="44">
+        <v>64.11</v>
+      </c>
+      <c r="F11" s="41">
         <f>10.24/12/100</f>
         <v>8.5333333333333337E-3</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="45" t="e" vm="3">
+      <c r="D12" s="42" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="E12" s="4" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">_FV(D12,"Preço")</f>
-        <v>122.5</v>
-      </c>
-      <c r="F12" s="44">
+        <v>121.89</v>
+      </c>
+      <c r="F12" s="41">
         <f>10.26/12/100</f>
         <v>8.5500000000000003E-3</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="45" t="e" vm="4">
+      <c r="D13" s="42" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="E13" s="4" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">_FV(D13,"Preço")</f>
-        <v>109.3</v>
-      </c>
-      <c r="F13" s="44">
+        <v>108.72</v>
+      </c>
+      <c r="F13" s="41">
         <f>10.98/12/100</f>
         <v>9.1500000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="45" t="e" vm="5">
+      <c r="D14" s="42" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
       <c r="E14" s="4" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">_FV(D14,"Preço")</f>
-        <v>101.58</v>
-      </c>
-      <c r="F14" s="44">
+        <v>100.91</v>
+      </c>
+      <c r="F14" s="41">
         <f>11.02/12/100</f>
         <v>9.1833333333333333E-3</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="48" t="str" cm="1">
+      <c r="C15" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">_FV(D15,"Símbolo do ticker",TRUE)</f>
         <v>VISC11</v>
       </c>
@@ -5197,15 +6752,15 @@
       </c>
       <c r="E15" s="1" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">_FV(D15,"Preço")</f>
-        <v>104.3</v>
-      </c>
-      <c r="F15" s="44">
+        <v>103.46</v>
+      </c>
+      <c r="F15" s="41">
         <f>11.53/12/100</f>
         <v>9.6083333333333333E-3</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="48" t="str" cm="1">
+      <c r="C16" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">_FV(D16,"Símbolo do ticker",TRUE)</f>
         <v>KNCR11</v>
       </c>
@@ -5214,15 +6769,15 @@
       </c>
       <c r="E16" s="1" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">_FV(D16,"Preço")</f>
-        <v>104.62</v>
-      </c>
-      <c r="F16" s="44">
+        <v>103.59</v>
+      </c>
+      <c r="F16" s="41">
         <f>11.55/12/100</f>
         <v>9.6249999999999999E-3</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C17" s="48" t="str" cm="1">
+      <c r="C17" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">_FV(D17,"Símbolo do ticker",TRUE)</f>
         <v>MCCI11</v>
       </c>
@@ -5231,15 +6786,15 @@
       </c>
       <c r="E17" s="1" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">_FV(D17,"Preço")</f>
-        <v>85.49</v>
-      </c>
-      <c r="F17" s="44">
+        <v>85.5</v>
+      </c>
+      <c r="F17" s="41">
         <f>12.4/12/100</f>
         <v>1.0333333333333335E-2</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C18" s="48" t="str" cm="1">
+      <c r="C18" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">_FV(D18,"Símbolo do ticker",TRUE)</f>
         <v>RBRR11</v>
       </c>
@@ -5248,15 +6803,15 @@
       </c>
       <c r="E18" s="1" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">_FV(D18,"Preço")</f>
-        <v>87.97</v>
-      </c>
-      <c r="F18" s="44">
+        <v>87.5</v>
+      </c>
+      <c r="F18" s="41">
         <f>12.54/12/100</f>
         <v>1.0449999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="43" t="s">
         <v>34</v>
       </c>
       <c r="D19" t="s">
@@ -5265,13 +6820,13 @@
       <c r="E19" s="4">
         <v>7.09</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="41">
         <f>12.62/12/100</f>
         <v>1.0516666666666665E-2</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C20" s="48" t="str" cm="1">
+      <c r="C20" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">_FV(D20,"Símbolo do ticker",TRUE)</f>
         <v>TEPP11</v>
       </c>
@@ -5280,15 +6835,15 @@
       </c>
       <c r="E20" s="1" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">_FV(D20,"Preço")</f>
-        <v>83.6</v>
-      </c>
-      <c r="F20" s="44">
+        <v>82.6</v>
+      </c>
+      <c r="F20" s="41">
         <f>13.71/12/100</f>
         <v>1.1425000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C21" s="48" t="str" cm="1">
+      <c r="C21" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">_FV(D21,"Símbolo do ticker",TRUE)</f>
         <v>CVBI11</v>
       </c>
@@ -5297,15 +6852,15 @@
       </c>
       <c r="E21" s="1" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">_FV(D21,"Preço")</f>
-        <v>86.89</v>
-      </c>
-      <c r="F21" s="44">
+        <v>86.9</v>
+      </c>
+      <c r="F21" s="41">
         <f>13.98/12/100</f>
         <v>1.1650000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C22" s="48" t="str" cm="1">
+      <c r="C22" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="C22" ca="1">_FV(D22,"Símbolo do ticker",TRUE)</f>
         <v>XPCI11</v>
       </c>
@@ -5314,22 +6869,23 @@
       </c>
       <c r="E22" s="1" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">_FV(D22,"Preço")</f>
-        <v>80.02</v>
-      </c>
-      <c r="F22" s="44">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="F22" s="41">
         <f>14.03/12/100</f>
         <v>1.1691666666666666E-2</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="48">
         <v>45810.378335763889</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" xr:uid="{117549B1-515A-4D52-AB47-676FDC554B15}"/>
   </hyperlinks>
